--- a/Project 4 Apache Common Configuration/Correlation Analysis/Correlation5&6.xlsx
+++ b/Project 4 Apache Common Configuration/Correlation Analysis/Correlation5&6.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
   <si>
     <t xml:space="preserve">Defect density</t>
   </si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Instability &amp; Defect Density Correlation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEARMAN</t>
   </si>
   <si>
     <t xml:space="preserve">2.0</t>
@@ -105,7 +111,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +122,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -153,12 +165,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -166,11 +190,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -238,9 +270,9 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -324,6 +356,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -335,6 +368,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -343,6 +377,20 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$8</c:f>
@@ -405,11 +453,87 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="80694786"/>
-        <c:axId val="86781932"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="@" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="ff420e"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$44:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$44:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="89264515"/>
+        <c:axId val="51301961"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80694786"/>
+        <c:axId val="89264515"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,7 +567,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -465,12 +589,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86781932"/>
+        <c:crossAx val="51301961"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86781932"/>
+        <c:axId val="51301961"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,7 +628,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -526,7 +650,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80694786"/>
+        <c:crossAx val="89264515"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -546,7 +670,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -558,15 +682,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>423360</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:colOff>194760</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:colOff>1661760</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -574,8 +698,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="423360" y="1816920"/>
-        <a:ext cx="5761080" cy="3241440"/>
+        <a:off x="194760" y="2171160"/>
+        <a:ext cx="5760720" cy="3240360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -593,46 +717,65 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="topLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2.6</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -656,12 +799,35 @@
         <f aca="false">PEARSON(B2:B8,F2:F8)</f>
         <v>-0.906196661351723</v>
       </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.780876494023904</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <f aca="false">_xlfn.RANK.AVG(K2,K$2:K$8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L2,L$2:L$8,1)</f>
+        <v>5</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <f aca="false">M2-N2</f>
+        <v>-3</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <f aca="false">O2^2</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="5" t="n">
         <v>1.44E-005</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -678,9 +844,32 @@
         <f aca="false">C3/E3</f>
         <v>0.783882783882784</v>
       </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="6" t="n">
+        <v>1.44E-005</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.783882783882784</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <f aca="false">_xlfn.RANK.AVG(K3,K$2:K$8,1)</f>
+        <v>4</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L3,L$2:L$8,1)</f>
+        <v>6.5</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <f aca="false">M3-N3</f>
+        <v>-2.5</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <f aca="false">O3^2</f>
+        <v>6.25</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2.4</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -700,9 +889,32 @@
         <f aca="false">C4/E4</f>
         <v>0.783882783882784</v>
       </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.783882783882784</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <f aca="false">_xlfn.RANK.AVG(K4,K$2:K$8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L4,L$2:L$8,1)</f>
+        <v>6.5</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <f aca="false">M4-N4</f>
+        <v>-4.5</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <f aca="false">O4^2</f>
+        <v>20.25</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>2.3</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -722,12 +934,35 @@
         <f aca="false">C5/E5</f>
         <v>0.780669144981413</v>
       </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.780669144981413</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <f aca="false">_xlfn.RANK.AVG(K5,K$2:K$8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L5,L$2:L$8,1)</f>
+        <v>4</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <f aca="false">M5-N5</f>
+        <v>-2</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <f aca="false">O5^2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="5" t="n">
         <v>8.75E-005</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -744,12 +979,35 @@
         <f aca="false">C6/E6</f>
         <v>0.779026217228464</v>
       </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="6" t="n">
+        <v>8.75E-005</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.779026217228464</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <f aca="false">_xlfn.RANK.AVG(K6,K$2:K$8,1)</f>
+        <v>5</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L6,L$2:L$8,1)</f>
+        <v>3</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <f aca="false">M6-N6</f>
+        <v>2</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <f aca="false">O6^2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="5" t="n">
         <v>8.85E-005</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -766,12 +1024,35 @@
         <f aca="false">C7/E7</f>
         <v>0.776515151515152</v>
       </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="6" t="n">
+        <v>8.85E-005</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.776515151515152</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <f aca="false">_xlfn.RANK.AVG(K7,K$2:K$8,1)</f>
+        <v>6</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L7,L$2:L$8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <f aca="false">M7-N7</f>
+        <v>4</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <f aca="false">O7^2</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="n">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="n">
         <v>0.00015</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -788,398 +1069,473 @@
         <f aca="false">C8/E8</f>
         <v>0.768627450980392</v>
       </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="6" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.768627450980392</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <f aca="false">_xlfn.RANK.AVG(K8,K$2:K$8,1)</f>
+        <v>7</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L8,L$2:L$8,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <f aca="false">M8-N8</f>
+        <v>6</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <f aca="false">O8^2</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="n">
+        <f aca="false">SUMSQ(O2:O8)</f>
+        <v>95.5</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <f aca="false">SUM(P2:P8)</f>
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="n">
+        <f aca="false">1-P9*6/(7^3-7)</f>
+        <v>-0.705357142857143</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3" t="n">
+        <f aca="false">PEARSON(M2:M8,N2:N8)</f>
+        <v>-0.785355471607104</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="5"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="5"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="5"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="5"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="5"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="5"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Project 4 Apache Common Configuration/Correlation Analysis/Correlation5&6.xlsx
+++ b/Project 4 Apache Common Configuration/Correlation Analysis/Correlation5&6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">Version</t>
   </si>
@@ -40,10 +40,13 @@
     <t xml:space="preserve">I=ce/(ce+ca)</t>
   </si>
   <si>
-    <t xml:space="preserve">Instability &amp; Defect Density Correlation</t>
+    <t xml:space="preserve">Instability &amp; Defect Density Correlation(Pearson)</t>
   </si>
   <si>
     <t xml:space="preserve">SPEARMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instability &amp; Defect Density Correlation(Spearman)</t>
   </si>
   <si>
     <t xml:space="preserve">2.0</t>
@@ -286,7 +289,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -529,11 +532,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="89264515"/>
-        <c:axId val="51301961"/>
+        <c:axId val="57143838"/>
+        <c:axId val="10771033"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89264515"/>
+        <c:axId val="57143838"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,12 +592,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51301961"/>
+        <c:crossAx val="10771033"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51301961"/>
+        <c:axId val="10771033"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -650,7 +653,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89264515"/>
+        <c:crossAx val="57143838"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -688,9 +691,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1661760</xdr:colOff>
+      <xdr:colOff>1661400</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -699,7 +702,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="194760" y="2171160"/>
-        <a:ext cx="5760720" cy="3240360"/>
+        <a:ext cx="5761080" cy="3240000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -720,10 +723,10 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -844,6 +847,9 @@
         <f aca="false">C3/E3</f>
         <v>0.783882783882784</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="6" t="n">
         <v>1.44E-005</v>
@@ -889,6 +895,9 @@
         <f aca="false">C4/E4</f>
         <v>0.783882783882784</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>-0.705357143</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4" t="n">
         <v>0</v>
@@ -1050,7 +1059,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>0.00015</v>
